--- a/evaluation/results/isolation_forest/augmented/shift_1/split_1/test_50_50/evaluation_metrics.xlsx
+++ b/evaluation/results/isolation_forest/augmented/shift_1/split_1/test_50_50/evaluation_metrics.xlsx
@@ -500,37 +500,37 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>0.7209737827715356</v>
+        <v>0.6226591760299626</v>
       </c>
       <c r="C2">
-        <v>0.8470588235294118</v>
+        <v>0.5771495877502945</v>
       </c>
       <c r="D2">
-        <v>0.5393258426966292</v>
+        <v>0.9176029962546817</v>
       </c>
       <c r="E2">
-        <v>0.6590389016018307</v>
+        <v>0.7086044830079538</v>
       </c>
       <c r="F2">
-        <v>0.5815831987075929</v>
+        <v>0.8207705192629816</v>
       </c>
       <c r="G2">
-        <v>0.5469685902118334</v>
+        <v>0.8972462849496443</v>
       </c>
       <c r="H2">
-        <v>0.7209737827715356</v>
+        <v>0.7754176661195977</v>
       </c>
       <c r="I2">
-        <v>288</v>
+        <v>490</v>
       </c>
       <c r="J2">
-        <v>52</v>
+        <v>359</v>
       </c>
       <c r="K2">
-        <v>482</v>
+        <v>175</v>
       </c>
       <c r="L2">
-        <v>246</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -565,13 +565,13 @@
         <v>17</v>
       </c>
       <c r="B2">
-        <v>0.6620879120879121</v>
+        <v>0.7990867579908676</v>
       </c>
       <c r="C2">
-        <v>0.9026217228464419</v>
+        <v>0.3277153558052435</v>
       </c>
       <c r="D2">
-        <v>0.7638668779714739</v>
+        <v>0.4648074369189907</v>
       </c>
       <c r="E2">
         <v>534</v>
@@ -582,13 +582,13 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>0.8470588235294118</v>
+        <v>0.5771495877502945</v>
       </c>
       <c r="C3">
-        <v>0.5393258426966292</v>
+        <v>0.9176029962546817</v>
       </c>
       <c r="D3">
-        <v>0.6590389016018307</v>
+        <v>0.7086044830079538</v>
       </c>
       <c r="E3">
         <v>534</v>
@@ -599,16 +599,16 @@
         <v>19</v>
       </c>
       <c r="B4">
-        <v>0.7209737827715356</v>
+        <v>0.6226591760299626</v>
       </c>
       <c r="C4">
-        <v>0.7209737827715356</v>
+        <v>0.6226591760299626</v>
       </c>
       <c r="D4">
-        <v>0.7209737827715356</v>
+        <v>0.6226591760299626</v>
       </c>
       <c r="E4">
-        <v>0.7209737827715356</v>
+        <v>0.6226591760299626</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -616,13 +616,13 @@
         <v>20</v>
       </c>
       <c r="B5">
-        <v>0.7545733678086619</v>
+        <v>0.688118172870581</v>
       </c>
       <c r="C5">
-        <v>0.7209737827715356</v>
+        <v>0.6226591760299626</v>
       </c>
       <c r="D5">
-        <v>0.7114528897866523</v>
+        <v>0.5867059599634722</v>
       </c>
       <c r="E5">
         <v>1068</v>
@@ -633,13 +633,13 @@
         <v>21</v>
       </c>
       <c r="B6">
-        <v>0.7545733678086619</v>
+        <v>0.6881181728705811</v>
       </c>
       <c r="C6">
-        <v>0.7209737827715356</v>
+        <v>0.6226591760299626</v>
       </c>
       <c r="D6">
-        <v>0.7114528897866522</v>
+        <v>0.5867059599634722</v>
       </c>
       <c r="E6">
         <v>1068</v>
@@ -671,10 +671,10 @@
         <v>24</v>
       </c>
       <c r="B2">
-        <v>482</v>
+        <v>175</v>
       </c>
       <c r="C2">
-        <v>52</v>
+        <v>359</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -682,10 +682,10 @@
         <v>25</v>
       </c>
       <c r="B3">
-        <v>246</v>
+        <v>44</v>
       </c>
       <c r="C3">
-        <v>288</v>
+        <v>490</v>
       </c>
     </row>
   </sheetData>
